--- a/PaperRecurrence/2013D/2 时空分布/0908001西安插值回归好.xlsx
+++ b/PaperRecurrence/2013D/2 时空分布/0908001西安插值回归好.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="4200" windowWidth="19395" windowHeight="7575" tabRatio="967" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="600" yWindow="4650" windowWidth="19395" windowHeight="7575" tabRatio="967"/>
   </bookViews>
   <sheets>
     <sheet name="高压开关厂1" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5452" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5538" uniqueCount="270">
   <si>
     <t>2013-4-20 </t>
   </si>
@@ -1993,8 +1993,8 @@
   </sheetPr>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5563,7 +5563,9 @@
       <c r="H111" s="6">
         <v>286.54000000000002</v>
       </c>
-      <c r="I111" s="6"/>
+      <c r="I111" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="J111" s="6" t="s">
         <v>108</v>
       </c>
@@ -5593,7 +5595,9 @@
       <c r="H112" s="6">
         <v>287.93</v>
       </c>
-      <c r="I112" s="6"/>
+      <c r="I112" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="J112" s="6" t="s">
         <v>109</v>
       </c>
@@ -5773,8 +5777,8 @@
   </sheetPr>
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5975,7 +5979,9 @@
       <c r="I6" s="15">
         <v>182</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K6" s="6" t="s">
         <v>16</v>
       </c>
@@ -6006,7 +6012,9 @@
       <c r="I7" s="15">
         <v>148</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K7" s="6" t="s">
         <v>3</v>
       </c>
@@ -6037,7 +6045,9 @@
       <c r="I8" s="15">
         <v>92</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K8" s="6" t="s">
         <v>0</v>
       </c>
@@ -6893,7 +6903,9 @@
       <c r="I34" s="15">
         <v>133</v>
       </c>
-      <c r="J34" s="6"/>
+      <c r="J34" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K34" s="6" t="s">
         <v>32</v>
       </c>
@@ -6924,7 +6936,9 @@
       <c r="I35" s="15">
         <v>115</v>
       </c>
-      <c r="J35" s="6"/>
+      <c r="J35" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K35" s="6" t="s">
         <v>33</v>
       </c>
@@ -6955,7 +6969,9 @@
       <c r="I36" s="15">
         <v>196</v>
       </c>
-      <c r="J36" s="6"/>
+      <c r="J36" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K36" s="6" t="s">
         <v>34</v>
       </c>
@@ -7250,7 +7266,9 @@
       <c r="I45" s="6">
         <v>155.68</v>
       </c>
-      <c r="J45" s="6"/>
+      <c r="J45" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K45" s="6" t="s">
         <v>43</v>
       </c>
@@ -7281,7 +7299,9 @@
       <c r="I46" s="6">
         <v>157.07</v>
       </c>
-      <c r="J46" s="6"/>
+      <c r="J46" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K46" s="6" t="s">
         <v>44</v>
       </c>
@@ -7510,7 +7530,9 @@
       <c r="I53" s="6">
         <v>166.87</v>
       </c>
-      <c r="J53" s="6"/>
+      <c r="J53" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K53" s="6" t="s">
         <v>51</v>
       </c>
@@ -7607,7 +7629,9 @@
       <c r="I56" s="15">
         <v>120</v>
       </c>
-      <c r="J56" s="6"/>
+      <c r="J56" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K56" s="6" t="s">
         <v>54</v>
       </c>
@@ -7638,7 +7662,9 @@
       <c r="I57" s="15">
         <v>105</v>
       </c>
-      <c r="J57" s="6"/>
+      <c r="J57" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K57" s="6" t="s">
         <v>55</v>
       </c>
@@ -7669,7 +7695,9 @@
       <c r="I58" s="15">
         <v>67</v>
       </c>
-      <c r="J58" s="6"/>
+      <c r="J58" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K58" s="6" t="s">
         <v>56</v>
       </c>
@@ -7701,7 +7729,7 @@
         <v>263</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>57</v>
@@ -7799,7 +7827,9 @@
       <c r="I62" s="15">
         <v>339</v>
       </c>
-      <c r="J62" s="6"/>
+      <c r="J62" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K62" s="6" t="s">
         <v>60</v>
       </c>
@@ -7830,7 +7860,9 @@
       <c r="I63" s="15">
         <v>333</v>
       </c>
-      <c r="J63" s="6"/>
+      <c r="J63" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K63" s="6" t="s">
         <v>61</v>
       </c>
@@ -7861,7 +7893,9 @@
       <c r="I64" s="15">
         <v>251</v>
       </c>
-      <c r="J64" s="6"/>
+      <c r="J64" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K64" s="6" t="s">
         <v>62</v>
       </c>
@@ -8288,7 +8322,9 @@
       <c r="I77" s="6">
         <v>200.46</v>
       </c>
-      <c r="J77" s="6"/>
+      <c r="J77" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K77" s="6" t="s">
         <v>75</v>
       </c>
@@ -8319,7 +8355,9 @@
       <c r="I78" s="6">
         <v>201.86</v>
       </c>
-      <c r="J78" s="6"/>
+      <c r="J78" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K78" s="6" t="s">
         <v>76</v>
       </c>
@@ -9626,8 +9664,8 @@
   </sheetPr>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="B85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10972,7 +11010,9 @@
       <c r="I40" s="6">
         <v>149.24</v>
       </c>
-      <c r="J40" s="6"/>
+      <c r="J40" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K40" s="6" t="s">
         <v>38</v>
       </c>
@@ -11003,7 +11043,9 @@
       <c r="I41" s="6">
         <v>151.02000000000001</v>
       </c>
-      <c r="J41" s="6"/>
+      <c r="J41" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K41" s="6" t="s">
         <v>39</v>
       </c>
@@ -11430,7 +11472,9 @@
       <c r="I54" s="6">
         <v>174.13</v>
       </c>
-      <c r="J54" s="6"/>
+      <c r="J54" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K54" s="6" t="s">
         <v>52</v>
       </c>
@@ -12814,7 +12858,9 @@
       <c r="I96" s="6">
         <v>248.8</v>
       </c>
-      <c r="J96" s="6"/>
+      <c r="J96" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K96" s="6" t="s">
         <v>116</v>
       </c>
@@ -12845,7 +12891,9 @@
       <c r="I97" s="6">
         <v>250.58</v>
       </c>
-      <c r="J97" s="6"/>
+      <c r="J97" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K97" s="6" t="s">
         <v>94</v>
       </c>
@@ -13239,7 +13287,9 @@
       <c r="I109" s="6">
         <v>271.92</v>
       </c>
-      <c r="J109" s="6"/>
+      <c r="J109" s="6" t="s">
+        <v>219</v>
+      </c>
       <c r="K109" s="6" t="s">
         <v>106</v>
       </c>
@@ -13523,8 +13573,8 @@
   </sheetPr>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13928,7 +13978,9 @@
       <c r="I12" s="15">
         <v>142.665437872056</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="K12" s="6" t="s">
         <v>7</v>
       </c>
@@ -14097,7 +14149,9 @@
       <c r="I17" s="15">
         <v>149.43980500000001</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K17" s="6" t="s">
         <v>12</v>
       </c>
@@ -16681,7 +16735,9 @@
       <c r="I95" s="6">
         <v>245.25</v>
       </c>
-      <c r="J95" s="6"/>
+      <c r="J95" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K95" s="6" t="s">
         <v>93</v>
       </c>
@@ -16712,7 +16768,9 @@
       <c r="I96" s="6">
         <v>246.47</v>
       </c>
-      <c r="J96" s="6"/>
+      <c r="J96" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K96" s="6" t="s">
         <v>116</v>
       </c>
@@ -17425,8 +17483,8 @@
   </sheetPr>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21207,7 +21265,9 @@
       <c r="I114" s="15">
         <v>153</v>
       </c>
-      <c r="J114" s="6"/>
+      <c r="J114" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K114" s="6" t="s">
         <v>111</v>
       </c>
@@ -21238,7 +21298,9 @@
       <c r="I115" s="15">
         <v>50</v>
       </c>
-      <c r="J115" s="6"/>
+      <c r="J115" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K115" s="6" t="s">
         <v>112</v>
       </c>
@@ -21269,7 +21331,9 @@
       <c r="I116" s="15">
         <v>79</v>
       </c>
-      <c r="J116" s="6"/>
+      <c r="J116" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K116" s="6" t="s">
         <v>113</v>
       </c>
@@ -21300,7 +21364,9 @@
       <c r="I117" s="15">
         <v>130</v>
       </c>
-      <c r="J117" s="6"/>
+      <c r="J117" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K117" s="6" t="s">
         <v>114</v>
       </c>
@@ -21320,8 +21386,8 @@
   </sheetPr>
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25213,7 +25279,7 @@
   </sheetPr>
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -27634,7 +27700,7 @@
   <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28770,7 +28836,9 @@
       <c r="I34" s="6">
         <v>160.53</v>
       </c>
-      <c r="J34" s="6"/>
+      <c r="J34" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K34" s="10" t="s">
         <v>32</v>
       </c>
@@ -29278,7 +29346,9 @@
       <c r="I49" s="6">
         <v>181.93</v>
       </c>
-      <c r="J49" s="6"/>
+      <c r="J49" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K49" s="10" t="s">
         <v>47</v>
       </c>
@@ -29309,7 +29379,9 @@
       <c r="I50" s="6">
         <v>183.36</v>
       </c>
-      <c r="J50" s="6"/>
+      <c r="J50" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K50" s="10" t="s">
         <v>48</v>
       </c>
@@ -29373,7 +29445,9 @@
       <c r="I52" s="6">
         <v>186.21</v>
       </c>
-      <c r="J52" s="6"/>
+      <c r="J52" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K52" s="10" t="s">
         <v>50</v>
       </c>
@@ -30064,7 +30138,9 @@
       <c r="I73" s="6">
         <v>216.17</v>
       </c>
-      <c r="J73" s="6"/>
+      <c r="J73" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K73" s="10" t="s">
         <v>71</v>
       </c>
@@ -31537,7 +31613,7 @@
   <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -32634,7 +32710,9 @@
       <c r="I33" s="6">
         <v>151.25</v>
       </c>
-      <c r="J33" s="6"/>
+      <c r="J33" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K33" s="6" t="s">
         <v>31</v>
       </c>
@@ -33727,7 +33805,9 @@
       <c r="I66" s="6">
         <v>198.56</v>
       </c>
-      <c r="J66" s="6"/>
+      <c r="J66" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K66" s="6" t="s">
         <v>64</v>
       </c>
@@ -34517,7 +34597,9 @@
       <c r="I90" s="15">
         <v>295</v>
       </c>
-      <c r="J90" s="15"/>
+      <c r="J90" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K90" s="6" t="s">
         <v>88</v>
       </c>
@@ -34548,7 +34630,9 @@
       <c r="I91" s="15">
         <v>223</v>
       </c>
-      <c r="J91" s="15"/>
+      <c r="J91" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K91" s="6" t="s">
         <v>89</v>
       </c>
@@ -34579,7 +34663,9 @@
       <c r="I92" s="15">
         <v>168</v>
       </c>
-      <c r="J92" s="15"/>
+      <c r="J92" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K92" s="6" t="s">
         <v>90</v>
       </c>
@@ -35425,7 +35511,7 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36010,7 +36096,9 @@
       <c r="I17" s="6">
         <v>117.29</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K17" s="6" t="s">
         <v>12</v>
       </c>
@@ -37570,7 +37658,9 @@
       <c r="I63" s="6">
         <v>180.55</v>
       </c>
-      <c r="J63" s="6"/>
+      <c r="J63" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K63" s="6"/>
       <c r="L63" s="5"/>
     </row>
@@ -37940,7 +38030,9 @@
       <c r="I74" s="6">
         <v>195.68</v>
       </c>
-      <c r="J74" s="6"/>
+      <c r="J74" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K74" s="6" t="s">
         <v>72</v>
       </c>
@@ -38992,7 +39084,9 @@
       <c r="I105" s="6">
         <v>238.31</v>
       </c>
-      <c r="J105" s="6"/>
+      <c r="J105" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K105" s="6" t="s">
         <v>102</v>
       </c>
@@ -39024,7 +39118,9 @@
       <c r="I106" s="6">
         <v>239.69</v>
       </c>
-      <c r="J106" s="6"/>
+      <c r="J106" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K106" s="6" t="s">
         <v>103</v>
       </c>
@@ -39419,8 +39515,8 @@
   </sheetPr>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -39593,7 +39689,9 @@
       <c r="I5" s="15">
         <v>145</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K5" s="6" t="s">
         <v>118</v>
       </c>
@@ -39624,7 +39722,9 @@
       <c r="I6" s="15">
         <v>182</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K6" s="6" t="s">
         <v>16</v>
       </c>
@@ -39658,7 +39758,9 @@
       <c r="I7" s="15">
         <v>148</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K7" s="6" t="s">
         <v>3</v>
       </c>
@@ -39689,7 +39791,9 @@
       <c r="I8" s="15">
         <v>92</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K8" s="6" t="s">
         <v>0</v>
       </c>
@@ -41346,7 +41450,9 @@
       <c r="I58" s="6">
         <v>201.98</v>
       </c>
-      <c r="J58" s="6"/>
+      <c r="J58" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K58" s="6" t="s">
         <v>56</v>
       </c>
@@ -41377,7 +41483,9 @@
       <c r="I59" s="6">
         <v>203.53</v>
       </c>
-      <c r="J59" s="6"/>
+      <c r="J59" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K59" s="6" t="s">
         <v>57</v>
       </c>
@@ -41606,7 +41714,9 @@
       <c r="I66" s="6">
         <v>214.4</v>
       </c>
-      <c r="J66" s="6"/>
+      <c r="J66" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K66" s="6" t="s">
         <v>64</v>
       </c>
@@ -41670,7 +41780,9 @@
       <c r="I68" s="6">
         <v>217.5</v>
       </c>
-      <c r="J68" s="6"/>
+      <c r="J68" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K68" s="6" t="s">
         <v>66</v>
       </c>
@@ -41701,7 +41813,9 @@
       <c r="I69" s="6">
         <v>219.05</v>
       </c>
-      <c r="J69" s="6"/>
+      <c r="J69" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K69" s="6" t="s">
         <v>67</v>
       </c>
@@ -43305,8 +43419,8 @@
   </sheetPr>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -43512,7 +43626,9 @@
       <c r="I6" s="6">
         <v>121.34</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K6" s="6" t="s">
         <v>16</v>
       </c>
@@ -43576,7 +43692,9 @@
       <c r="I8" s="6">
         <v>124.65</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K8" s="6" t="s">
         <v>0</v>
       </c>
@@ -43607,7 +43725,9 @@
       <c r="I9" s="6">
         <v>126.31</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K9" s="6" t="s">
         <v>4</v>
       </c>
@@ -46515,7 +46635,9 @@
       <c r="I97" s="6">
         <v>271.91000000000003</v>
       </c>
-      <c r="J97" s="6"/>
+      <c r="J97" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K97" s="6" t="s">
         <v>94</v>
       </c>
@@ -46876,7 +46998,9 @@
       <c r="I108" s="6">
         <v>290.11</v>
       </c>
-      <c r="J108" s="6"/>
+      <c r="J108" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K108" s="6" t="s">
         <v>105</v>
       </c>
@@ -47193,8 +47317,8 @@
   </sheetPr>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -47461,7 +47585,9 @@
       <c r="I8" s="6">
         <v>98.91</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="K8" s="6" t="s">
         <v>0</v>
       </c>
@@ -47558,7 +47684,9 @@
       <c r="I11" s="6">
         <v>104.34</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K11" s="6" t="s">
         <v>6</v>
       </c>
@@ -47853,7 +47981,9 @@
       <c r="I20" s="15">
         <v>93</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K20" s="6" t="s">
         <v>18</v>
       </c>
@@ -47884,7 +48014,9 @@
       <c r="I21" s="15">
         <v>102</v>
       </c>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K21" s="6" t="s">
         <v>176</v>
       </c>
@@ -47915,7 +48047,9 @@
       <c r="I22" s="15">
         <v>78</v>
       </c>
-      <c r="J22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="K22" s="6" t="s">
         <v>20</v>
       </c>
@@ -48315,7 +48449,9 @@
       <c r="I34" s="15">
         <v>133</v>
       </c>
-      <c r="J34" s="6"/>
+      <c r="J34" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K34" s="6" t="s">
         <v>32</v>
       </c>
@@ -48346,7 +48482,9 @@
       <c r="I35" s="15">
         <v>115</v>
       </c>
-      <c r="J35" s="6"/>
+      <c r="J35" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K35" s="6" t="s">
         <v>33</v>
       </c>
@@ -48377,7 +48515,9 @@
       <c r="I36" s="15">
         <v>196</v>
       </c>
-      <c r="J36" s="6"/>
+      <c r="J36" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K36" s="6" t="s">
         <v>34</v>
       </c>
@@ -48573,7 +48713,9 @@
       <c r="I42" s="15">
         <v>149</v>
       </c>
-      <c r="J42" s="6"/>
+      <c r="J42" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K42" s="6" t="s">
         <v>40</v>
       </c>
@@ -48604,7 +48746,9 @@
       <c r="I43" s="15">
         <v>252</v>
       </c>
-      <c r="J43" s="6"/>
+      <c r="J43" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K43" s="6" t="s">
         <v>41</v>
       </c>
@@ -48635,7 +48779,9 @@
       <c r="I44" s="15">
         <v>218</v>
       </c>
-      <c r="J44" s="6"/>
+      <c r="J44" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K44" s="6" t="s">
         <v>42</v>
       </c>
@@ -49689,7 +49835,9 @@
       <c r="I76" s="15">
         <v>292</v>
       </c>
-      <c r="J76" s="15"/>
+      <c r="J76" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K76" s="6" t="s">
         <v>74</v>
       </c>
@@ -49720,7 +49868,9 @@
       <c r="I77" s="15">
         <v>500</v>
       </c>
-      <c r="J77" s="15"/>
+      <c r="J77" s="6" t="s">
+        <v>219</v>
+      </c>
       <c r="K77" s="6" t="s">
         <v>183</v>
       </c>
@@ -49751,7 +49901,9 @@
       <c r="I78" s="15">
         <v>310</v>
       </c>
-      <c r="J78" s="15"/>
+      <c r="J78" s="6" t="s">
+        <v>219</v>
+      </c>
       <c r="K78" s="6" t="s">
         <v>76</v>
       </c>
@@ -51058,8 +51210,8 @@
   </sheetPr>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -51529,7 +51681,9 @@
       <c r="I14" s="6">
         <v>117.93</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K14" s="6" t="s">
         <v>9</v>
       </c>
@@ -52298,7 +52452,9 @@
       <c r="I37" s="6">
         <v>149.09</v>
       </c>
-      <c r="J37" s="6"/>
+      <c r="J37" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K37" s="6" t="s">
         <v>35</v>
       </c>
@@ -54507,7 +54663,9 @@
       <c r="I104" s="6">
         <v>239.89</v>
       </c>
-      <c r="J104" s="6"/>
+      <c r="J104" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K104" s="6" t="s">
         <v>101</v>
       </c>
@@ -54538,7 +54696,9 @@
       <c r="I105" s="6">
         <v>241.25</v>
       </c>
-      <c r="J105" s="6"/>
+      <c r="J105" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K105" s="6" t="s">
         <v>102</v>
       </c>
@@ -54866,7 +55026,9 @@
       <c r="I115" s="6">
         <v>254.8</v>
       </c>
-      <c r="J115" s="6"/>
+      <c r="J115" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="K115" s="6" t="s">
         <v>112</v>
       </c>
@@ -54952,8 +55114,8 @@
   </sheetPr>
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -56051,7 +56213,9 @@
       <c r="I33" s="6">
         <v>157.25</v>
       </c>
-      <c r="J33" s="6"/>
+      <c r="J33" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K33" s="6" t="s">
         <v>170</v>
       </c>
@@ -56082,7 +56246,9 @@
       <c r="I34" s="6">
         <v>158.47</v>
       </c>
-      <c r="J34" s="6"/>
+      <c r="J34" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K34" s="6" t="s">
         <v>32</v>
       </c>
@@ -56212,7 +56378,9 @@
       <c r="I38" s="6">
         <v>163.36000000000001</v>
       </c>
-      <c r="J38" s="6"/>
+      <c r="J38" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K38" s="6" t="s">
         <v>36</v>
       </c>
@@ -56705,7 +56873,9 @@
       <c r="I53" s="6">
         <v>181.68</v>
       </c>
-      <c r="J53" s="6"/>
+      <c r="J53" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K53" s="6" t="s">
         <v>51</v>
       </c>
@@ -56736,7 +56906,9 @@
       <c r="I54" s="6">
         <v>182.9</v>
       </c>
-      <c r="J54" s="6"/>
+      <c r="J54" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="K54" s="6" t="s">
         <v>52</v>
       </c>
